--- a/nr-mv-MS/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:08:34+00:00</t>
+    <t>2025-10-08T14:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -513,9 +513,6 @@
   </si>
   <si>
     <t>date-maj-ae</t>
-  </si>
-  <si>
-    <t>Date maj de l'activité selon l'autorité d'enregistrement</t>
   </si>
   <si>
     <t>HealthcareService.meta.extension:as-ext-data-trace.extension:date-maj-ae.id</t>
@@ -3976,7 +3973,7 @@
         <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>126</v>
@@ -4053,7 +4050,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>128</v>
@@ -4159,7 +4156,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>130</v>
@@ -4265,7 +4262,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>133</v>
@@ -4373,7 +4370,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>141</v>
@@ -4399,7 +4396,7 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>143</v>
@@ -4479,10 +4476,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4522,7 +4519,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>75</v>
@@ -4587,10 +4584,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4613,7 +4610,7 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>143</v>
@@ -4693,10 +4690,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4722,13 +4719,13 @@
         <v>86</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4778,7 +4775,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4801,10 +4798,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4827,16 +4824,16 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4886,7 +4883,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4909,10 +4906,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4938,13 +4935,13 @@
         <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4994,7 +4991,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5017,10 +5014,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5043,16 +5040,16 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5090,10 +5087,10 @@
         <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AC30" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>75</v>
@@ -5102,7 +5099,7 @@
         <v>111</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5125,13 +5122,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>75</v>
@@ -5153,16 +5150,16 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5212,7 +5209,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5235,10 +5232,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5261,16 +5258,16 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5299,28 +5296,28 @@
         <v>157</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z32" t="s" s="2">
+      <c r="AA32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5343,10 +5340,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5369,16 +5366,16 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5404,31 +5401,31 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Z33" t="s" s="2">
+      <c r="AA33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5451,10 +5448,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5480,13 +5477,13 @@
         <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5536,7 +5533,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5559,10 +5556,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5588,13 +5585,13 @@
         <v>155</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5620,31 +5617,31 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5667,14 +5664,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5693,16 +5690,16 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5752,7 +5749,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5767,7 +5764,7 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5775,14 +5772,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5801,16 +5798,16 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5860,7 +5857,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5883,10 +5880,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5964,7 +5961,7 @@
         <v>111</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5987,13 +5984,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>75</v>
@@ -6015,13 +6012,13 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6072,7 +6069,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6081,7 +6078,7 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>113</v>
@@ -6095,10 +6092,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6124,16 +6121,16 @@
         <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>108</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6182,7 +6179,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6205,10 +6202,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6231,13 +6228,13 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6276,10 +6273,10 @@
         <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AC41" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>75</v>
@@ -6288,7 +6285,7 @@
         <v>111</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6303,21 +6300,21 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C42" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="C42" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>75</v>
@@ -6339,13 +6336,13 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6396,7 +6393,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6411,18 +6408,18 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6525,10 +6522,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6633,10 +6630,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6662,16 +6659,16 @@
         <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6699,28 +6696,28 @@
         <v>145</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Z45" t="s" s="2">
+      <c r="AA45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6735,7 +6732,7 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6743,10 +6740,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6772,16 +6769,16 @@
         <v>142</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6809,28 +6806,28 @@
         <v>157</v>
       </c>
       <c r="Y46" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="Z46" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="Z46" t="s" s="2">
+      <c r="AA46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6845,7 +6842,7 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6853,10 +6850,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6882,16 +6879,16 @@
         <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>75</v>
@@ -6901,46 +6898,46 @@
         <v>75</v>
       </c>
       <c r="S47" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="T47" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="T47" t="s" s="2">
+      <c r="U47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6955,7 +6952,7 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6963,10 +6960,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6992,13 +6989,13 @@
         <v>98</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7012,43 +7009,43 @@
         <v>75</v>
       </c>
       <c r="T48" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7063,7 +7060,7 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -7071,10 +7068,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7097,13 +7094,13 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7154,7 +7151,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7169,7 +7166,7 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -7177,10 +7174,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7203,16 +7200,16 @@
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7262,7 +7259,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7277,7 +7274,7 @@
         <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -7285,10 +7282,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7311,23 +7308,23 @@
         <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q51" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>75</v>
@@ -7372,7 +7369,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7387,18 +7384,18 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7421,16 +7418,16 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7480,7 +7477,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7495,7 +7492,7 @@
         <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>75</v>
@@ -7503,14 +7500,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7532,13 +7529,13 @@
         <v>142</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7568,7 +7565,7 @@
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -7586,7 +7583,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7601,22 +7598,22 @@
         <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7638,10 +7635,10 @@
         <v>142</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7668,19 +7665,19 @@
         <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z54" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AA54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
@@ -7690,7 +7687,7 @@
         <v>111</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7705,7 +7702,7 @@
         <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>75</v>
@@ -7713,16 +7710,16 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C55" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="D55" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="D55" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7744,10 +7741,10 @@
         <v>142</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7778,7 +7775,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -7796,7 +7793,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7811,7 +7808,7 @@
         <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -7819,16 +7816,16 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="D56" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="D56" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7850,10 +7847,10 @@
         <v>142</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7884,7 +7881,7 @@
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -7902,7 +7899,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7917,7 +7914,7 @@
         <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -7925,10 +7922,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7954,10 +7951,10 @@
         <v>142</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7988,25 +7985,25 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8021,7 +8018,7 @@
         <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -8029,10 +8026,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8055,13 +8052,13 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8112,7 +8109,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8127,18 +8124,18 @@
         <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8164,10 +8161,10 @@
         <v>98</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8218,7 +8215,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8233,7 +8230,7 @@
         <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -8241,10 +8238,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8270,13 +8267,13 @@
         <v>98</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8326,7 +8323,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8341,7 +8338,7 @@
         <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -8349,10 +8346,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8375,13 +8372,13 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8432,7 +8429,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8447,7 +8444,7 @@
         <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>75</v>
@@ -8455,10 +8452,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8481,13 +8478,13 @@
         <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8538,7 +8535,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8553,7 +8550,7 @@
         <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -8561,10 +8558,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8587,16 +8584,16 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8646,7 +8643,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8661,7 +8658,7 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8669,10 +8666,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8695,16 +8692,16 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8754,7 +8751,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -8769,7 +8766,7 @@
         <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8777,10 +8774,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8806,13 +8803,13 @@
         <v>142</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8838,13 +8835,13 @@
         <v>75</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>75</v>
@@ -8862,7 +8859,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8877,7 +8874,7 @@
         <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
@@ -8885,10 +8882,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8911,13 +8908,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8968,7 +8965,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -8991,10 +8988,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9097,10 +9094,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9205,14 +9202,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9234,16 +9231,16 @@
         <v>105</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>108</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>75</v>
@@ -9292,7 +9289,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9315,10 +9312,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9344,10 +9341,10 @@
         <v>142</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9374,10 +9371,10 @@
         <v>75</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>75</v>
@@ -9398,7 +9395,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9413,7 +9410,7 @@
         <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>75</v>
@@ -9421,10 +9418,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9447,16 +9444,16 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9506,7 +9503,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9521,7 +9518,7 @@
         <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>75</v>
@@ -9529,10 +9526,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9558,13 +9555,13 @@
         <v>142</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9590,14 +9587,14 @@
         <v>75</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>75</v>
       </c>
@@ -9614,7 +9611,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9629,7 +9626,7 @@
         <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>75</v>
@@ -9637,10 +9634,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9666,13 +9663,13 @@
         <v>142</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9702,7 +9699,7 @@
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>75</v>
@@ -9720,7 +9717,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -9735,7 +9732,7 @@
         <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -9743,10 +9740,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9772,13 +9769,13 @@
         <v>142</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9804,14 +9801,14 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y74" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y74" t="s" s="2">
+      <c r="Z74" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AA74" t="s" s="2">
         <v>75</v>
       </c>
@@ -9828,7 +9825,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -9851,10 +9848,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9880,10 +9877,10 @@
         <v>142</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9910,14 +9907,14 @@
         <v>75</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y75" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="Z75" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>445</v>
-      </c>
       <c r="AA75" t="s" s="2">
         <v>75</v>
       </c>
@@ -9934,7 +9931,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -9949,7 +9946,7 @@
         <v>96</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>75</v>
@@ -9957,10 +9954,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9983,13 +9980,13 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10040,7 +10037,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10055,7 +10052,7 @@
         <v>96</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>75</v>
@@ -10063,10 +10060,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10089,16 +10086,16 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10148,7 +10145,7 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -10163,7 +10160,7 @@
         <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>75</v>
@@ -10171,10 +10168,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10277,10 +10274,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10385,14 +10382,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10414,16 +10411,16 @@
         <v>105</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>108</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>75</v>
@@ -10472,7 +10469,7 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -10495,10 +10492,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10524,10 +10521,10 @@
         <v>155</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10557,11 +10554,11 @@
         <v>145</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>75</v>
       </c>
@@ -10578,7 +10575,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -10593,7 +10590,7 @@
         <v>96</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>75</v>
@@ -10601,10 +10598,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10627,13 +10624,13 @@
         <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10684,7 +10681,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -10699,7 +10696,7 @@
         <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
@@ -10707,10 +10704,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10733,16 +10730,16 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10792,7 +10789,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -10807,7 +10804,7 @@
         <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -10815,10 +10812,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10841,16 +10838,16 @@
         <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="N84" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10900,7 +10897,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -10915,7 +10912,7 @@
         <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>75</v>
@@ -10923,10 +10920,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10949,13 +10946,13 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11006,7 +11003,7 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -11021,7 +11018,7 @@
         <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>75</v>
@@ -11029,10 +11026,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11135,10 +11132,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11243,14 +11240,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11272,16 +11269,16 @@
         <v>105</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>75</v>
@@ -11330,7 +11327,7 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -11353,10 +11350,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11382,10 +11379,10 @@
         <v>98</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11436,7 +11433,7 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>84</v>
@@ -11459,10 +11456,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11485,13 +11482,13 @@
         <v>75</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11542,7 +11539,7 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -11557,7 +11554,7 @@
         <v>96</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
@@ -11565,10 +11562,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11594,10 +11591,10 @@
         <v>98</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11648,7 +11645,7 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -11663,7 +11660,7 @@
         <v>96</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>75</v>
@@ -11671,10 +11668,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11697,13 +11694,13 @@
         <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11754,7 +11751,7 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>

--- a/nr-mv-MS/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-dr-healthcareservice-healthcare-activity.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3131" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:26:13+00:00</t>
+    <t>2025-10-08T14:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>date-maj-ae</t>
+  </si>
+  <si>
+    <t>Date maj de l'activité selon l'autorité d'enregistrement</t>
   </si>
   <si>
     <t>HealthcareService.meta.extension:as-ext-data-trace.extension:date-maj-ae.id</t>
@@ -3973,7 +3976,7 @@
         <v>105</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>126</v>
@@ -4050,7 +4053,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>128</v>
@@ -4156,7 +4159,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>130</v>
@@ -4262,7 +4265,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>133</v>
@@ -4370,7 +4373,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>141</v>
@@ -4396,7 +4399,7 @@
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>143</v>
@@ -4476,10 +4479,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4519,7 +4522,7 @@
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>75</v>
@@ -4584,10 +4587,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4610,7 +4613,7 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>143</v>
@@ -4690,10 +4693,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4719,13 +4722,13 @@
         <v>86</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4775,7 +4778,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4798,10 +4801,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4824,16 +4827,16 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4883,7 +4886,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4906,10 +4909,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4935,13 +4938,13 @@
         <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4991,7 +4994,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5014,10 +5017,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5040,16 +5043,16 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5087,10 +5090,10 @@
         <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>75</v>
@@ -5099,7 +5102,7 @@
         <v>111</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5122,13 +5125,13 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>75</v>
@@ -5150,16 +5153,16 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5209,7 +5212,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5232,10 +5235,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5258,16 +5261,16 @@
         <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5296,10 +5299,10 @@
         <v>157</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -5317,7 +5320,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5340,10 +5343,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5366,16 +5369,16 @@
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5401,13 +5404,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -5425,7 +5428,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5448,10 +5451,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5477,13 +5480,13 @@
         <v>134</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5533,7 +5536,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5556,10 +5559,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5585,13 +5588,13 @@
         <v>155</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5617,13 +5620,13 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
@@ -5641,7 +5644,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5664,14 +5667,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5690,16 +5693,16 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5749,7 +5752,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5764,7 +5767,7 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5772,14 +5775,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5798,16 +5801,16 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5857,7 +5860,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5880,10 +5883,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5961,7 +5964,7 @@
         <v>111</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5984,13 +5987,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>75</v>
@@ -6012,13 +6015,13 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6069,7 +6072,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6078,7 +6081,7 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>113</v>
@@ -6092,10 +6095,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6121,16 +6124,16 @@
         <v>105</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>108</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -6179,7 +6182,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6202,10 +6205,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6228,13 +6231,13 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6273,10 +6276,10 @@
         <v>75</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>75</v>
@@ -6285,7 +6288,7 @@
         <v>111</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6300,21 +6303,21 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>75</v>
@@ -6336,13 +6339,13 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6393,7 +6396,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6408,18 +6411,18 @@
         <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6522,10 +6525,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6630,10 +6633,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6659,16 +6662,16 @@
         <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>75</v>
@@ -6696,10 +6699,10 @@
         <v>145</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -6717,7 +6720,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6732,7 +6735,7 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6740,10 +6743,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6769,16 +6772,16 @@
         <v>142</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
@@ -6806,10 +6809,10 @@
         <v>157</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6827,7 +6830,7 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -6842,7 +6845,7 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6850,10 +6853,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6879,16 +6882,16 @@
         <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>75</v>
@@ -6898,10 +6901,10 @@
         <v>75</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>75</v>
@@ -6937,7 +6940,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6952,7 +6955,7 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6960,10 +6963,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6989,13 +6992,13 @@
         <v>98</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7009,7 +7012,7 @@
         <v>75</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>75</v>
@@ -7045,7 +7048,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7060,7 +7063,7 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -7068,10 +7071,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7094,13 +7097,13 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7151,7 +7154,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7166,7 +7169,7 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -7174,10 +7177,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7200,16 +7203,16 @@
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7259,7 +7262,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7274,7 +7277,7 @@
         <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>75</v>
@@ -7282,10 +7285,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7308,23 +7311,23 @@
         <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q51" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>75</v>
@@ -7369,7 +7372,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7384,18 +7387,18 @@
         <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7418,16 +7421,16 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7477,7 +7480,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7492,7 +7495,7 @@
         <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>75</v>
@@ -7500,14 +7503,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7529,13 +7532,13 @@
         <v>142</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7565,7 +7568,7 @@
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
@@ -7583,7 +7586,7 @@
         <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -7598,22 +7601,22 @@
         <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7635,10 +7638,10 @@
         <v>142</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7665,19 +7668,19 @@
         <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
@@ -7687,7 +7690,7 @@
         <v>111</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -7702,7 +7705,7 @@
         <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>75</v>
@@ -7710,16 +7713,16 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7741,10 +7744,10 @@
         <v>142</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7775,7 +7778,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -7793,7 +7796,7 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -7808,7 +7811,7 @@
         <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -7816,16 +7819,16 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -7847,10 +7850,10 @@
         <v>142</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7881,7 +7884,7 @@
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -7899,7 +7902,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7914,7 +7917,7 @@
         <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -7922,10 +7925,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7951,10 +7954,10 @@
         <v>142</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7985,7 +7988,7 @@
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>75</v>
@@ -8003,7 +8006,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8018,7 +8021,7 @@
         <v>96</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>75</v>
@@ -8026,10 +8029,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8052,13 +8055,13 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8109,7 +8112,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8124,18 +8127,18 @@
         <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8161,10 +8164,10 @@
         <v>98</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8215,7 +8218,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8230,7 +8233,7 @@
         <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -8238,10 +8241,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8267,13 +8270,13 @@
         <v>98</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8323,7 +8326,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8338,7 +8341,7 @@
         <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -8346,10 +8349,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8372,13 +8375,13 @@
         <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8429,7 +8432,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8444,7 +8447,7 @@
         <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>75</v>
@@ -8452,10 +8455,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8478,13 +8481,13 @@
         <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8535,7 +8538,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8550,7 +8553,7 @@
         <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -8558,10 +8561,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8584,16 +8587,16 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8643,7 +8646,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8658,7 +8661,7 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>75</v>
@@ -8666,10 +8669,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8692,16 +8695,16 @@
         <v>75</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8751,7 +8754,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -8766,7 +8769,7 @@
         <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>75</v>
@@ -8774,10 +8777,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8803,13 +8806,13 @@
         <v>142</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -8835,13 +8838,13 @@
         <v>75</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>75</v>
@@ -8859,7 +8862,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -8874,7 +8877,7 @@
         <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>75</v>
@@ -8882,10 +8885,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8908,13 +8911,13 @@
         <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8965,7 +8968,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -8988,10 +8991,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9094,10 +9097,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9202,14 +9205,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9231,16 +9234,16 @@
         <v>105</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>108</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>75</v>
@@ -9289,7 +9292,7 @@
         <v>75</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9312,10 +9315,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9341,10 +9344,10 @@
         <v>142</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9371,10 +9374,10 @@
         <v>75</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>75</v>
@@ -9395,7 +9398,7 @@
         <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -9410,7 +9413,7 @@
         <v>96</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>75</v>
@@ -9418,10 +9421,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9444,16 +9447,16 @@
         <v>75</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9503,7 +9506,7 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9518,7 +9521,7 @@
         <v>96</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>75</v>
@@ -9526,10 +9529,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9555,13 +9558,13 @@
         <v>142</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9587,13 +9590,13 @@
         <v>75</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>75</v>
@@ -9611,7 +9614,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -9626,7 +9629,7 @@
         <v>96</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>75</v>
@@ -9634,10 +9637,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9663,13 +9666,13 @@
         <v>142</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -9699,7 +9702,7 @@
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>75</v>
@@ -9717,7 +9720,7 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -9732,7 +9735,7 @@
         <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>75</v>
@@ -9740,10 +9743,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9769,13 +9772,13 @@
         <v>142</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9801,13 +9804,13 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>75</v>
@@ -9825,7 +9828,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -9848,10 +9851,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9877,10 +9880,10 @@
         <v>142</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -9907,13 +9910,13 @@
         <v>75</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>75</v>
@@ -9931,7 +9934,7 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -9946,7 +9949,7 @@
         <v>96</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>75</v>
@@ -9954,10 +9957,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9980,13 +9983,13 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10037,7 +10040,7 @@
         <v>75</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10052,7 +10055,7 @@
         <v>96</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>75</v>
@@ -10060,10 +10063,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10086,16 +10089,16 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10145,7 +10148,7 @@
         <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -10160,7 +10163,7 @@
         <v>96</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>75</v>
@@ -10168,10 +10171,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10274,10 +10277,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10382,14 +10385,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -10411,16 +10414,16 @@
         <v>105</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N80" t="s" s="2">
         <v>108</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>75</v>
@@ -10469,7 +10472,7 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -10492,10 +10495,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10521,10 +10524,10 @@
         <v>155</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10554,10 +10557,10 @@
         <v>145</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>75</v>
@@ -10575,7 +10578,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -10590,7 +10593,7 @@
         <v>96</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>75</v>
@@ -10598,10 +10601,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10624,13 +10627,13 @@
         <v>75</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10681,7 +10684,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -10696,7 +10699,7 @@
         <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>75</v>
@@ -10704,10 +10707,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10730,16 +10733,16 @@
         <v>75</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -10789,7 +10792,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -10804,7 +10807,7 @@
         <v>96</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>75</v>
@@ -10812,10 +10815,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10838,16 +10841,16 @@
         <v>75</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10897,7 +10900,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -10912,7 +10915,7 @@
         <v>96</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>75</v>
@@ -10920,10 +10923,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10946,13 +10949,13 @@
         <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11003,7 +11006,7 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -11018,7 +11021,7 @@
         <v>96</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>75</v>
@@ -11026,10 +11029,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11132,10 +11135,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11240,14 +11243,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -11269,16 +11272,16 @@
         <v>105</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>108</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>75</v>
@@ -11327,7 +11330,7 @@
         <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -11350,10 +11353,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11379,10 +11382,10 @@
         <v>98</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11433,7 +11436,7 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>84</v>
@@ -11456,10 +11459,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11482,13 +11485,13 @@
         <v>75</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11539,7 +11542,7 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -11554,7 +11557,7 @@
         <v>96</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>75</v>
@@ -11562,10 +11565,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11591,10 +11594,10 @@
         <v>98</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11645,7 +11648,7 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -11660,7 +11663,7 @@
         <v>96</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>75</v>
@@ -11668,10 +11671,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11694,13 +11697,13 @@
         <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11751,7 +11754,7 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
